--- a/DATA_goal/Junction_Flooding_165.xlsx
+++ b/DATA_goal/Junction_Flooding_165.xlsx
@@ -443,34 +443,34 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
@@ -655,103 +655,103 @@
         <v>41597.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>23.16</v>
+        <v>2.32</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>16</v>
+        <v>1.6</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.23</v>
+        <v>0.42</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>48.77</v>
+        <v>4.88</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>40.35</v>
+        <v>4.03</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>18.22</v>
+        <v>1.82</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>60.55</v>
+        <v>6.06</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>28.04</v>
+        <v>2.8</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>11.94</v>
+        <v>1.19</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>18.4</v>
+        <v>1.84</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>19.29</v>
+        <v>1.93</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>20.24</v>
+        <v>2.02</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.82</v>
+        <v>0.58</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>18.12</v>
+        <v>1.81</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>25.51</v>
+        <v>2.55</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>15.12</v>
+        <v>1.51</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.8</v>
+        <v>0.38</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.46</v>
+        <v>0.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>268.49</v>
+        <v>26.85</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>50.47</v>
+        <v>5.05</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>16.73</v>
+        <v>1.67</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>33.54</v>
+        <v>3.35</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>17.47</v>
+        <v>1.75</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.22</v>
+        <v>0.22</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>30.08</v>
+        <v>3.01</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>14.77</v>
+        <v>1.48</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>13.25</v>
+        <v>1.32</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>15.5</v>
+        <v>1.55</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>19.98</v>
+        <v>2</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>0.36</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>53.52</v>
+        <v>5.35</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>9.33</v>
+        <v>0.93</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>20.91</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41597.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>7.59</v>
+        <v>0.76</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.02</v>
+        <v>0.5</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.52</v>
+        <v>0.15</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>15.88</v>
+        <v>1.59</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>13.16</v>
+        <v>1.32</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>5.97</v>
+        <v>0.6</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>27.49</v>
+        <v>2.75</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>9.19</v>
+        <v>0.92</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.84</v>
+        <v>0.38</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.88</v>
+        <v>0.59</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6.37</v>
+        <v>0.64</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>6.55</v>
+        <v>0.66</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.91</v>
+        <v>0.19</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>5.94</v>
+        <v>0.59</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>8.32</v>
+        <v>0.83</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.22</v>
+        <v>0.52</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.55</v>
+        <v>0.16</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.79</v>
+        <v>0.08</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>83.12</v>
+        <v>8.31</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>16.83</v>
+        <v>1.68</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.48</v>
+        <v>0.55</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>10.98</v>
+        <v>1.1</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.91</v>
+        <v>0.59</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.65</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>12.64</v>
+        <v>1.26</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.84</v>
+        <v>0.48</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.51</v>
+        <v>0.45</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.25</v>
+        <v>0.52</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>6.57</v>
+        <v>0.66</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.29</v>
+        <v>0.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>25.01</v>
+        <v>2.5</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.97</v>
+        <v>0.3</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>6.86</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41597.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>7.69</v>
+        <v>0.77</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>5.32</v>
+        <v>0.53</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.03</v>
+        <v>0.1</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>16.31</v>
+        <v>1.63</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>13.51</v>
+        <v>1.35</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>6.05</v>
+        <v>0.6</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>24.43</v>
+        <v>2.44</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>9.31</v>
+        <v>0.93</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.97</v>
+        <v>0.4</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>6.02</v>
+        <v>0.6</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>6.6</v>
+        <v>0.66</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>6.8</v>
+        <v>0.68</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.93</v>
+        <v>0.19</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>6.02</v>
+        <v>0.6</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>8.43</v>
+        <v>0.84</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>5.25</v>
+        <v>0.52</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.01</v>
+        <v>0.1</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>84.22</v>
+        <v>8.42</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>16.83</v>
+        <v>1.68</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>5.55</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>11.07</v>
+        <v>1.11</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>6.03</v>
+        <v>0.6</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.68</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>11.42</v>
+        <v>1.14</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.9</v>
+        <v>0.49</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>4.49</v>
+        <v>0.45</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>5.25</v>
+        <v>0.53</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>6.86</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>21.9</v>
+        <v>2.19</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>3.04</v>
+        <v>0.3</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.94</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41597.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>17.2</v>
+        <v>1.72</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>12.59</v>
+        <v>1.26</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>1.13</v>
+        <v>0.11</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>37.11</v>
+        <v>3.71</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>30.7</v>
+        <v>3.07</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>13.54</v>
+        <v>1.35</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>50.02</v>
+        <v>5</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>20.83</v>
+        <v>2.08</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>9.19</v>
+        <v>0.92</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>13.79</v>
+        <v>1.38</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>14.97</v>
+        <v>1.5</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>15.66</v>
+        <v>1.57</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>4.32</v>
+        <v>0.43</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>13.46</v>
+        <v>1.35</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>19.11</v>
+        <v>1.91</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>11.38</v>
+        <v>1.14</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.84</v>
+        <v>0.08</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>197.53</v>
+        <v>19.75</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>37.57</v>
+        <v>3.76</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>12.42</v>
+        <v>1.24</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>25.19</v>
+        <v>2.52</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>13.44</v>
+        <v>1.34</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.67</v>
+        <v>0.17</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>24.53</v>
+        <v>2.45</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>10.97</v>
+        <v>1.1</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>9.77</v>
+        <v>0.98</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>11.48</v>
+        <v>1.15</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>15.67</v>
+        <v>1.57</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>45.09</v>
+        <v>4.51</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>6.98</v>
+        <v>0.7</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>15.53</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41597.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>7.49</v>
+        <v>0.75</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>5.36</v>
+        <v>0.54</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>16.06</v>
+        <v>1.61</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>13.29</v>
+        <v>1.33</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>5.9</v>
+        <v>0.59</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>26.42</v>
+        <v>2.64</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>9.07</v>
+        <v>0.91</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>3.98</v>
+        <v>0.4</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>5.93</v>
+        <v>0.59</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>6.53</v>
+        <v>0.65</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>6.74</v>
+        <v>0.67</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>1.89</v>
+        <v>0.19</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>5.87</v>
+        <v>0.59</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>8.32</v>
+        <v>0.83</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>5.06</v>
+        <v>0.51</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.61</v>
+        <v>0.06</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.39</v>
+        <v>0.04</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>81.97</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>16.56</v>
+        <v>1.66</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>5.41</v>
+        <v>0.54</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>11.02</v>
+        <v>1.1</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>5.92</v>
+        <v>0.59</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>12.37</v>
+        <v>1.24</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>4.78</v>
+        <v>0.48</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>4.32</v>
+        <v>0.43</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>5.06</v>
+        <v>0.51</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>6.8</v>
+        <v>0.68</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>24.12</v>
+        <v>2.41</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>3</v>
+        <v>0.3</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>6.77</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41597.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>2.98</v>
+        <v>0.3</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>2.01</v>
+        <v>0.2</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>6.27</v>
+        <v>0.63</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>5.2</v>
+        <v>0.52</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>2.35</v>
+        <v>0.23</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>12.58</v>
+        <v>1.26</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>3.61</v>
+        <v>0.36</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>1.56</v>
+        <v>0.16</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>2.28</v>
+        <v>0.23</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>2.6</v>
+        <v>0.26</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>2.6</v>
+        <v>0.26</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>2.33</v>
+        <v>0.23</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>3.31</v>
+        <v>0.33</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>2.1</v>
+        <v>0.21</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="S7" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="V7" s="4" t="n">
         <v>0.22</v>
       </c>
-      <c r="T7" s="4" t="n">
-        <v>28.19</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>2.15</v>
-      </c>
       <c r="W7" s="4" t="n">
-        <v>4.42</v>
+        <v>0.44</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>2.42</v>
+        <v>0.24</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>5.66</v>
+        <v>0.57</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>1.9</v>
+        <v>0.19</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>1.77</v>
+        <v>0.18</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>2.06</v>
+        <v>0.21</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>2.68</v>
+        <v>0.27</v>
       </c>
       <c r="AE7" s="4" t="n">
-        <v>0.36</v>
+        <v>0.04</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>11.53</v>
+        <v>1.15</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>1.15</v>
+        <v>0.11</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>2.69</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41597.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>22.96</v>
+        <v>2.3</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>17.06</v>
+        <v>1.71</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>1.07</v>
+        <v>0.11</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>49.78</v>
+        <v>4.98</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>41.17</v>
+        <v>4.12</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>18.07</v>
+        <v>1.81</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>64.89</v>
+        <v>6.49</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>27.81</v>
+        <v>2.78</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>12.4</v>
+        <v>1.24</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>18.53</v>
+        <v>1.85</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>20.06</v>
+        <v>2.01</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>21.08</v>
+        <v>2.11</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>5.77</v>
+        <v>0.58</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>17.97</v>
+        <v>1.8</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>25.61</v>
+        <v>2.56</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>15.04</v>
+        <v>1.5</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.58</v>
+        <v>0.06</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.79</v>
+        <v>0.08</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>266.21</v>
+        <v>26.62</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>50.13</v>
+        <v>5.01</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>16.59</v>
+        <v>1.66</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>33.81</v>
+        <v>3.38</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>17.92</v>
+        <v>1.79</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>2.29</v>
+        <v>0.23</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>32.34</v>
+        <v>3.23</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>14.65</v>
+        <v>1.47</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>12.94</v>
+        <v>1.29</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>15.22</v>
+        <v>1.52</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>21.03</v>
+        <v>2.1</v>
       </c>
       <c r="AE8" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>58.61</v>
+        <v>5.86</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>9.390000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>20.74</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41597.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>5.48</v>
+        <v>0.55</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>3.95</v>
+        <v>0.39</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.45</v>
+        <v>0.04</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>11.76</v>
+        <v>1.18</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>9.73</v>
+        <v>0.97</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>4.31</v>
+        <v>0.43</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>22.58</v>
+        <v>2.26</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>6.63</v>
+        <v>0.66</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>2.96</v>
+        <v>0.3</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>4.33</v>
+        <v>0.43</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>4.8</v>
+        <v>0.48</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>4.94</v>
+        <v>0.49</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>1.39</v>
+        <v>0.14</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>4.29</v>
+        <v>0.43</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>6.15</v>
+        <v>0.61</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>3.69</v>
+        <v>0.37</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.38</v>
+        <v>0.04</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>57.97</v>
+        <v>5.8</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>12.29</v>
+        <v>1.23</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>3.96</v>
+        <v>0.4</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>8.23</v>
+        <v>0.82</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>4.36</v>
+        <v>0.44</v>
       </c>
       <c r="Y9" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z9" s="4" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AA9" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="AB9" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AC9" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="AD9" s="4" t="n">
         <v>0.5</v>
       </c>
-      <c r="Z9" s="4" t="n">
-        <v>10.4</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>4.99</v>
-      </c>
       <c r="AE9" s="4" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>20.92</v>
+        <v>2.09</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>2.19</v>
+        <v>0.22</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>4.95</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41597.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>1.54</v>
+        <v>0.15</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>1.01</v>
+        <v>0.1</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>3.2</v>
+        <v>0.32</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>2.65</v>
+        <v>0.27</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>1.21</v>
+        <v>0.12</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>8.81</v>
+        <v>0.88</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>1.86</v>
+        <v>0.19</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>0.84</v>
+        <v>0.08</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>1.14</v>
+        <v>0.11</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>1.37</v>
+        <v>0.14</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>1.31</v>
+        <v>0.13</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>1.2</v>
+        <v>0.12</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>1.76</v>
+        <v>0.18</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>1.12</v>
+        <v>0.11</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="S10" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T10" s="4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="U10" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="V10" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="W10" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="X10" s="4" t="n">
         <v>0.13</v>
       </c>
-      <c r="T10" s="4" t="n">
-        <v>11.05</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>2.43</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.32</v>
-      </c>
       <c r="Y10" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="Z10" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AA10" s="4" t="n">
         <v>0.1</v>
       </c>
-      <c r="Z10" s="4" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.98</v>
-      </c>
       <c r="AB10" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>1.08</v>
+        <v>0.11</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>1.38</v>
+        <v>0.14</v>
       </c>
       <c r="AE10" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>8.19</v>
+        <v>0.82</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>1.39</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_165.xlsx
+++ b/DATA_goal/Junction_Flooding_165.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,7 +443,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
@@ -451,24 +451,24 @@
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="6" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
     <col width="6" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41597.34027777778</v>
+        <v>44846.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.32</v>
+        <v>0.5</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.6</v>
+        <v>0.49</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.42</v>
+        <v>0.11</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.88</v>
+        <v>0.97</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>4.03</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.82</v>
+        <v>0.34</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>6.06</v>
+        <v>0.82</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.8</v>
+        <v>0.45</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.19</v>
+        <v>0.21</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.84</v>
+        <v>0.45</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.93</v>
+        <v>0.52</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>2.02</v>
+        <v>0.36</v>
       </c>
       <c r="N2" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="AF2" s="4" t="n">
         <v>0.58</v>
       </c>
-      <c r="O2" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="R2" s="4" t="n">
+      <c r="AG2" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="AH2" s="4" t="n">
         <v>0.38</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>26.85</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="AF2" s="4" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="AG2" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AH2" s="4" t="n">
-        <v>2.09</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41597.34722222222</v>
+        <v>44846.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.76</v>
+        <v>0.93</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.5</v>
+        <v>0.73</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.15</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.59</v>
+        <v>1.95</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.32</v>
+        <v>1.69</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.6</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.75</v>
+        <v>2.39</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.92</v>
+        <v>1.05</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.38</v>
+        <v>0.49</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.59</v>
+        <v>0.78</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.64</v>
+        <v>0.82</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.66</v>
+        <v>0.82</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.19</v>
+        <v>0.22</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.59</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T3" s="4" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="U3" s="4" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V3" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="W3" s="4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA3" s="4" t="n">
         <v>0.52</v>
       </c>
-      <c r="R3" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>8.31</v>
-      </c>
-      <c r="U3" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="V3" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="W3" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="X3" s="4" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.48</v>
-      </c>
       <c r="AB3" s="4" t="n">
-        <v>0.45</v>
+        <v>0.61</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.52</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.66</v>
+        <v>0.85</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41597.35416666666</v>
+        <v>44846.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.77</v>
+        <v>2.42</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.53</v>
+        <v>1.83</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0.1</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.63</v>
+        <v>5.2</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.35</v>
+        <v>4.35</v>
       </c>
       <c r="G4" s="4" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="H4" s="4" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="J4" s="4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="N4" s="4" t="n">
         <v>0.6</v>
       </c>
-      <c r="H4" s="4" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="I4" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="K4" s="4" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.19</v>
-      </c>
       <c r="O4" s="4" t="n">
-        <v>0.6</v>
+        <v>1.87</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.84</v>
+        <v>2.68</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.52</v>
+        <v>1.55</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0.06</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>8.42</v>
+        <v>27.86</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.68</v>
+        <v>5.22</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.72</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>1.11</v>
+        <v>3.53</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.6</v>
+        <v>1.89</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>1.14</v>
+        <v>3.55</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.49</v>
+        <v>1.49</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.45</v>
+        <v>1.41</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.53</v>
+        <v>1.56</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>2.22</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>2.19</v>
+        <v>6.28</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.3</v>
+        <v>1.01</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41597.36111111111</v>
+        <v>44846.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.72</v>
+        <v>1.31</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.26</v>
+        <v>0.99</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.71</v>
+        <v>2.8</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>3.07</v>
+        <v>2.36</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>5</v>
+        <v>4.27</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>2.08</v>
+        <v>1.55</v>
       </c>
       <c r="J5" s="4" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>14.7</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="V5" s="4" t="n">
         <v>0.92</v>
       </c>
-      <c r="K5" s="4" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P5" s="4" t="n">
+      <c r="W5" s="4" t="n">
         <v>1.91</v>
       </c>
-      <c r="Q5" s="4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>19.75</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>2.52</v>
-      </c>
       <c r="X5" s="4" t="n">
-        <v>1.34</v>
+        <v>1.03</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.98</v>
+        <v>0.78</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>1.15</v>
+        <v>0.84</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.57</v>
+        <v>1.2</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>4.51</v>
+        <v>3.86</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.7</v>
+        <v>0.55</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.55</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41597.36805555555</v>
+        <v>44846.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.75</v>
+        <v>21.73</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.54</v>
+        <v>16.4</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>1.61</v>
+        <v>46.89</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>1.33</v>
+        <v>39.09</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.59</v>
+        <v>16.9</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>2.64</v>
+        <v>64.89</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>0.91</v>
+        <v>25.98</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.4</v>
+        <v>11.75</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.59</v>
+        <v>17.7</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>0.65</v>
+        <v>18.92</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>0.67</v>
+        <v>19.92</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.19</v>
+        <v>5.42</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>0.59</v>
+        <v>16.82</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>0.83</v>
+        <v>24.17</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.51</v>
+        <v>13.99</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0.06</v>
+        <v>0.43</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.04</v>
+        <v>0.53</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>8.199999999999999</v>
+        <v>250.06</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>1.66</v>
+        <v>47.09</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.54</v>
+        <v>15.49</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>1.1</v>
+        <v>31.89</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.59</v>
+        <v>16.96</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>2.22</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>1.24</v>
+        <v>32.22</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.48</v>
+        <v>13.54</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.43</v>
+        <v>12.5</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.51</v>
+        <v>14.1</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>0.68</v>
+        <v>19.91</v>
       </c>
       <c r="AE6" s="4" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>2.41</v>
+        <v>58.57</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.3</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41597.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41597.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>2.11</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>26.62</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>2.07</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41597.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41597.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41597.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>26.42</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>21.85</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>33.08</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>14.78</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>6.55</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>9.82</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>10.68</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>11.17</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>13.56</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>8.02</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>137.99</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>26.52</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>8.81</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>17.84</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>9.52</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>16.38</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>7.79</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>6.89</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>11.18</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>29.51</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>4.97</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>11.02</v>
+        <v>19.39</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_165.xlsx
+++ b/DATA_goal/Junction_Flooding_165.xlsx
@@ -444,15 +444,15 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
@@ -469,12 +469,12 @@
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
@@ -655,103 +655,103 @@
         <v>44846.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.5</v>
+        <v>4.96</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.93</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.07</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.69</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.44</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.41</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.82</v>
+        <v>8.19</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.53</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.1</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.54</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.17</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.45</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.48</v>
+        <v>4.77</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.21</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
+        <v>48.94</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>9.630000000000001</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AB2" s="4" t="n">
         <v>4.89</v>
       </c>
-      <c r="U2" s="4" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>0.49</v>
-      </c>
       <c r="AC2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.24</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.45</v>
+        <v>4.48</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.58</v>
+        <v>5.81</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.24</v>
+        <v>2.38</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44846.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.93</v>
+        <v>9.34</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.73</v>
+        <v>7.34</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.95</v>
+        <v>19.5</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.69</v>
+        <v>16.89</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.94</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.39</v>
+        <v>23.93</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.05</v>
+        <v>10.48</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.49</v>
+        <v>4.85</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.78</v>
+        <v>7.76</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.82</v>
+        <v>8.24</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.82</v>
+        <v>8.18</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.2</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.95</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1</v>
+        <v>10.03</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.58</v>
+        <v>5.78</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>10.1</v>
+        <v>101</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.95</v>
+        <v>19.53</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.63</v>
+        <v>6.31</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.3</v>
+        <v>13.01</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.75</v>
+        <v>7.49</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.35</v>
+        <v>13.54</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.52</v>
+        <v>5.2</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.61</v>
+        <v>6.14</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.62</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.85</v>
+        <v>8.51</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>2.1</v>
+        <v>21.03</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.4</v>
+        <v>4.03</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.79</v>
+        <v>7.93</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44846.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.42</v>
+        <v>24.19</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.83</v>
+        <v>18.33</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.05</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>5.2</v>
+        <v>52.02</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>4.35</v>
+        <v>43.53</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.87</v>
+        <v>18.72</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>6.96</v>
+        <v>69.56999999999999</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.87</v>
+        <v>28.73</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.3</v>
+        <v>13.03</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.97</v>
+        <v>19.74</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>2.11</v>
+        <v>21.1</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.21</v>
+        <v>22.06</v>
       </c>
       <c r="N4" s="4" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>18.65</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>26.81</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="R4" s="4" t="n">
         <v>0.6</v>
       </c>
-      <c r="O4" s="4" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.06</v>
-      </c>
       <c r="S4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>27.86</v>
+        <v>278.57</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>5.22</v>
+        <v>52.24</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.72</v>
+        <v>17.15</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>3.53</v>
+        <v>35.31</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.89</v>
+        <v>18.93</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.25</v>
+        <v>2.47</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.55</v>
+        <v>35.47</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.49</v>
+        <v>14.9</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.41</v>
+        <v>14.12</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.56</v>
+        <v>15.58</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.22</v>
+        <v>22.16</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>6.28</v>
+        <v>62.84</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.01</v>
+        <v>10.09</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.15</v>
+        <v>21.48</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44846.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.31</v>
+        <v>13.11</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.99</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.8</v>
+        <v>28.05</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.36</v>
+        <v>23.58</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.01</v>
+        <v>10.07</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>4.27</v>
+        <v>42.68</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.55</v>
+        <v>15.45</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.71</v>
+        <v>7.05</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.07</v>
+        <v>10.71</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.14</v>
+        <v>11.4</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.19</v>
+        <v>11.91</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.32</v>
+        <v>3.24</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1</v>
+        <v>10.03</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.45</v>
+        <v>14.5</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.84</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.42</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>14.7</v>
+        <v>147.02</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.83</v>
+        <v>28.27</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.92</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.91</v>
+        <v>19.11</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.03</v>
+        <v>10.28</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.34</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2.1</v>
+        <v>20.98</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.8</v>
+        <v>7.96</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.78</v>
+        <v>7.77</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.84</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.2</v>
+        <v>11.99</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.86</v>
+        <v>38.61</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.55</v>
+        <v>5.49</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.16</v>
+        <v>11.55</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_165.xlsx
+++ b/DATA_goal/Junction_Flooding_165.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="8" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -658,52 +658,52 @@
         <v>4.96</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>4.93</v>
+        <v>4.926</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.07</v>
+        <v>1.074</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>9.69</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>9.44</v>
+        <v>9.442</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>3.41</v>
+        <v>3.413</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>8.19</v>
+        <v>8.191000000000001</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>4.53</v>
+        <v>4.526</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.1</v>
+        <v>2.102</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.54</v>
+        <v>4.543</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>5.17</v>
+        <v>5.171</v>
       </c>
       <c r="M2" s="4" t="n">
         <v>3.55</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.88</v>
+        <v>0.877</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>3.45</v>
+        <v>3.454</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>4.77</v>
+        <v>4.766</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>2.49</v>
+        <v>2.485</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>1.21</v>
+        <v>1.205</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
@@ -712,46 +712,46 @@
         <v>48.94</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>9.630000000000001</v>
+        <v>9.632</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>3</v>
+        <v>2.995</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>5.54</v>
+        <v>5.545</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>4.64</v>
+        <v>4.641</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.66</v>
+        <v>0.661</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>7.55</v>
+        <v>7.552</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.9</v>
+        <v>1.905</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.89</v>
+        <v>4.889</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>2.24</v>
+        <v>2.236</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>4.48</v>
+        <v>4.485</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0.29</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>5.81</v>
+        <v>5.812</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>2.38</v>
+        <v>2.376</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>3.75</v>
+        <v>3.752</v>
       </c>
     </row>
     <row r="3">
@@ -762,16 +762,16 @@
         <v>9.34</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>7.34</v>
+        <v>7.339</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>19.5</v>
+        <v>19.501</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>16.89</v>
+        <v>16.887</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>6.94</v>
@@ -780,82 +780,82 @@
         <v>23.93</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>10.48</v>
+        <v>10.481</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.85</v>
+        <v>4.851</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>7.76</v>
+        <v>7.756</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>8.24</v>
+        <v>8.236000000000001</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>8.18</v>
+        <v>8.180999999999999</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.2</v>
+        <v>2.197</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6.95</v>
+        <v>6.947</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>10.03</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>5.78</v>
+        <v>5.779</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.67</v>
+        <v>0.665</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.081</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>101</v>
+        <v>101.002</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>19.53</v>
+        <v>19.532</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>6.31</v>
+        <v>6.311</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>13.01</v>
+        <v>13.011</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>7.49</v>
+        <v>7.488</v>
       </c>
       <c r="Y3" s="4" t="n">
         <v>0.96</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>13.54</v>
+        <v>13.535</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>5.2</v>
+        <v>5.203</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.14</v>
+        <v>6.144</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.62</v>
+        <v>5.624</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>8.51</v>
+        <v>8.512</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.033</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>21.03</v>
+        <v>21.027</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.03</v>
+        <v>4.026</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>7.93</v>
+        <v>7.932</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44846.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>24.19</v>
+        <v>24.189</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>18.33</v>
+        <v>18.333</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.05</v>
+        <v>1.048</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>52.02</v>
+        <v>52.024</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>43.53</v>
+        <v>43.535</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>18.72</v>
+        <v>18.725</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>69.56999999999999</v>
+        <v>69.57299999999999</v>
       </c>
       <c r="I4" s="4" t="n">
         <v>28.73</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>13.03</v>
+        <v>13.027</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>19.74</v>
+        <v>19.743</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>21.1</v>
+        <v>21.098</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>22.06</v>
+        <v>22.064</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.99</v>
+        <v>5.992</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>18.65</v>
+        <v>18.653</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>26.81</v>
+        <v>26.805</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>15.51</v>
+        <v>15.511</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.6</v>
+        <v>0.605</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.556</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>278.57</v>
+        <v>278.571</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>52.24</v>
+        <v>52.239</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>17.15</v>
+        <v>17.152</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>35.31</v>
+        <v>35.314</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>18.93</v>
+        <v>18.935</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.47</v>
+        <v>2.473</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>35.47</v>
+        <v>35.468</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>14.9</v>
+        <v>14.904</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>14.12</v>
+        <v>14.122</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>15.58</v>
+        <v>15.579</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>22.16</v>
+        <v>22.157</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>62.84</v>
+        <v>62.839</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>10.09</v>
+        <v>10.088</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>21.48</v>
+        <v>21.481</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>11.55</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44846.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>21.73</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>46.89</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>39.09</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>64.89</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>25.98</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>18.92</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>19.92</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>16.82</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>24.17</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>13.99</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>250.06</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>47.09</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>15.49</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>31.89</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>16.96</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>32.22</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>13.54</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>19.91</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>58.57</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>19.39</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_165.xlsx
+++ b/DATA_goal/Junction_Flooding_165.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44846.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>13.11</v>
+        <v>13.108</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.949999999999999</v>
+        <v>9.946999999999999</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.61</v>
+        <v>0.613</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>28.05</v>
+        <v>28.047</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>23.58</v>
+        <v>23.582</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.07</v>
+        <v>10.067</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>42.68</v>
+        <v>42.676</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>15.45</v>
+        <v>15.452</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.05</v>
+        <v>7.051</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.71</v>
+        <v>10.708</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>11.4</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>11.91</v>
+        <v>11.907</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.24</v>
+        <v>3.236</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.03</v>
+        <v>10.035</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>14.5</v>
+        <v>14.498</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.380000000000001</v>
+        <v>8.375</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.42</v>
+        <v>0.416</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.26</v>
+        <v>0.257</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>147.02</v>
+        <v>147.024</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>28.27</v>
+        <v>28.267</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>9.220000000000001</v>
+        <v>9.215999999999999</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>19.11</v>
+        <v>19.113</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>10.28</v>
+        <v>10.283</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.34</v>
+        <v>1.335</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>20.98</v>
+        <v>20.975</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.96</v>
+        <v>7.956</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.77</v>
+        <v>7.765</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8.369999999999999</v>
+        <v>8.366</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>11.99</v>
+        <v>11.992</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>38.61</v>
+        <v>38.615</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.49</v>
+        <v>5.493</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>11.55</v>
+        <v>11.554</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44846.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>21.73</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>46.89</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>39.09</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>64.89</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>25.98</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>17.7</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>18.92</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>19.92</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>16.82</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>24.17</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>13.99</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>250.06</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>47.09</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>15.49</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>31.89</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>16.96</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>32.22</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>13.54</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>19.91</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>58.57</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>19.39</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_165.xlsx
+++ b/DATA_goal/Junction_Flooding_165.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44846.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>13.108</v>
+        <v>13.11</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.946999999999999</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.613</v>
+        <v>0.61</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>28.047</v>
+        <v>28.05</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>23.582</v>
+        <v>23.58</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.067</v>
+        <v>10.07</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>42.676</v>
+        <v>42.68</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>15.452</v>
+        <v>15.45</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.051</v>
+        <v>7.05</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.708</v>
+        <v>10.71</v>
       </c>
       <c r="L5" s="4" t="n">
         <v>11.4</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>11.907</v>
+        <v>11.91</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.236</v>
+        <v>3.24</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.035</v>
+        <v>10.03</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>14.498</v>
+        <v>14.5</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>8.375</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.416</v>
+        <v>0.42</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.257</v>
+        <v>0.26</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>147.024</v>
+        <v>147.02</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>28.267</v>
+        <v>28.27</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>9.215999999999999</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>19.113</v>
+        <v>19.11</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>10.283</v>
+        <v>10.28</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.335</v>
+        <v>1.34</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>20.975</v>
+        <v>20.98</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.956</v>
+        <v>7.96</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>7.765</v>
+        <v>7.77</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>8.366</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>11.992</v>
+        <v>11.99</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>38.615</v>
+        <v>38.61</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.493</v>
+        <v>5.49</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>11.554</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44846.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>21.73</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.86</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>46.89</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>39.09</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>64.89</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>25.98</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>17.7</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>18.92</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>19.92</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>16.82</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>24.17</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>13.99</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>250.06</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>47.09</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>15.49</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>31.89</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>16.96</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>32.22</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>13.54</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>19.91</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>58.57</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>19.39</v>
+        <v>11.55</v>
       </c>
     </row>
   </sheetData>
